--- a/parameter_files/v2/lambdas.xlsx
+++ b/parameter_files/v2/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFC6CED-0C61-416D-9D20-689FEE0EB1F6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB04C7E-62F8-4890-A8A3-F3BD58456D5C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>small growers</t>
   </si>
@@ -727,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617137F-8957-46B3-A8AD-7CB6BD779CD3}">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,7 +742,7 @@
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>4</v>
@@ -846,8 +846,11 @@
       <c r="AI1" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ1" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -859,7 +862,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -887,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -900,7 +903,7 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,14 +916,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="16"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -959,49 +962,49 @@
       <c r="AH9" s="14"/>
       <c r="AI9" s="15"/>
     </row>
-    <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="16"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="16"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="R12" s="16"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="R13" s="16"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="16"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="16"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>

--- a/parameter_files/v2/lambdas.xlsx
+++ b/parameter_files/v2/lambdas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB04C7E-62F8-4890-A8A3-F3BD58456D5C}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5EACA7B-0DC3-4416-9AF1-46C33650B3CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,16 +734,18 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI31" sqref="AI31"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" customWidth="1"/>
+    <col min="26" max="26" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -868,9 +874,6 @@
       </c>
       <c r="B3" s="16"/>
       <c r="H3" s="6"/>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -1081,6 +1084,18 @@
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
@@ -1105,6 +1120,18 @@
     <row r="31" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/parameter_files/v2/lambdas.xlsx
+++ b/parameter_files/v2/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5EACA7B-0DC3-4416-9AF1-46C33650B3CA}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FFFAAAD-B082-42DB-8331-135397447F45}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>small growers</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>GSAs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +196,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -413,6 +422,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617137F-8957-46B3-A8AD-7CB6BD779CD3}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,10 +755,10 @@
     <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="23" max="23" width="11.1796875" customWidth="1"/>
-    <col min="26" max="26" width="14.08984375" customWidth="1"/>
+    <col min="26" max="27" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>4</v>
@@ -825,38 +835,41 @@
       <c r="Z1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,7 +881,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,12 +890,15 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="W4">
         <v>1</v>
@@ -892,8 +908,9 @@
       <c r="Z4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -905,12 +922,15 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="T6">
         <v>3</v>
@@ -919,14 +939,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="16"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -938,7 +958,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -963,58 +983,59 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="15"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="15"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="16"/>
-      <c r="AI10" s="6"/>
-    </row>
-    <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ10" s="6"/>
+    </row>
+    <row r="11" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="AI11" s="6"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ11" s="6"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="R12" s="16"/>
-      <c r="AI12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ12" s="6"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="R13" s="16"/>
-      <c r="AI13" s="6"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ13" s="6"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="16"/>
-      <c r="AI14" s="6"/>
-    </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ14" s="6"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="16"/>
-      <c r="AI15" s="6"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ15" s="6"/>
+    </row>
+    <row r="16" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="16"/>
-      <c r="AI16" s="6"/>
-    </row>
-    <row r="17" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ16" s="6"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
@@ -1035,24 +1056,25 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="18"/>
-    </row>
-    <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="18"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1060,27 +1082,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
@@ -1097,65 +1119,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>0.5</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>35</v>
       </c>
     </row>
